--- a/crpd-health.xlsx
+++ b/crpd-health.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>Article</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>We are utterly doomed on Article 5.</t>
-  </si>
-  <si>
     <t>The number of children in segregated schools (also known as 'special schools') has been increasing for several years. This appears to be because mainstream schools are not able to offer appropriate support to disabled pupils to participate in lessons and in the social life of the school.</t>
   </si>
   <si>
@@ -250,6 +247,12 @@
   </si>
   <si>
     <t>The UK has not brought the UNCRPD into domestic legislation in either letter or spirit.</t>
+  </si>
+  <si>
+    <t>Disabled people are much less likely to be in work than non-disabled people</t>
+  </si>
+  <si>
+    <t>The disability employment gap remains stubbornly high</t>
   </si>
 </sst>
 </file>
@@ -1109,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1135,7 +1138,7 @@
         <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.2">
@@ -1146,13 +1149,13 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
@@ -1162,9 +1165,6 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
       <c r="F3" t="s">
         <v>33</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1375,13 +1375,13 @@
         <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.2">
@@ -1413,8 +1413,14 @@
       <c r="D25" t="s">
         <v>59</v>
       </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
       <c r="F25" t="s">
         <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.2">
@@ -1458,13 +1464,13 @@
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.2">
